--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/ReignTitle.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerate/DatabaseGenerate/Resource/AncientBooks/ReignTitle.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8604"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -442,7 +455,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1389,18 +1402,18 @@
   <sheetPr/>
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="4" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.77777777777778" style="1"/>
+    <col min="1" max="1" width="25.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="4" width="16.8916666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2212,13 +2225,13 @@
     <row r="122" spans="1:4">
       <c r="A122" s="2">
         <f>INT(C122*100+D122)</f>
-        <v>120011000201</v>
+        <v>110011000201</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C122" s="1">
-        <v>1200110002</v>
+        <v>1100110002</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -2230,13 +2243,13 @@
     <row r="124" spans="1:4">
       <c r="A124" s="2">
         <f>INT(C124*100+D124)</f>
-        <v>170011000601</v>
+        <v>160011000601</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C124" s="1">
-        <v>1700110006</v>
+        <v>1600110006</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
